--- a/data/save_data/2022/mejía_j. c..xlsx
+++ b/data/save_data/2022/mejía_j. c..xlsx
@@ -502,7 +502,7 @@
         <v>-6</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>-5</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>-11</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>-5</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>-3</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>

--- a/data/save_data/2022/mejía_j. c..xlsx
+++ b/data/save_data/2022/mejía_j. c..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,10 +496,10 @@
         <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -530,10 +530,10 @@
         <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F3" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>-11</v>
       </c>
       <c r="F4" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>-5</v>
       </c>
       <c r="F5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F8" t="n">
         <v>-3</v>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
